--- a/baoCaoTienDo.xlsx
+++ b/baoCaoTienDo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\Tiểu luận chuyên ngành\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanhu\Documents\GitHub\SPKT.CNTT.WEB.SALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D12E78-972E-4151-93C1-E49134C091A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD609251-A319-4E8A-951F-AFB5477E7692}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="1125" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Tuần</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Sinh viên thực hiện:
 1. Nguyễn Văn Hùng - 16110099
 2. Nguyễn Thái Hòa - 16110083</t>
-  </si>
-  <si>
-    <t>Đang thực hiện</t>
   </si>
   <si>
     <t>Vẽ lược đồ Use Case</t>
@@ -180,12 +177,6 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -196,11 +187,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +481,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,158 +493,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="6" t="s">
+      <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/baoCaoTienDo.xlsx
+++ b/baoCaoTienDo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanhu\Documents\GitHub\SPKT.CNTT.WEB.SALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD609251-A319-4E8A-951F-AFB5477E7692}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC729475-9581-4FF2-AA11-CB96B3C7AAFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="1125" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Tuần</t>
   </si>
@@ -36,22 +36,10 @@
     <t>Kết quả thực hiện</t>
   </si>
   <si>
-    <t>Tuần 1</t>
-  </si>
-  <si>
     <t>Đăng ký tên đề tài thực hiện TLCN</t>
   </si>
   <si>
     <t>Trao đổi thông tin thực hiện TLCN với GVHD</t>
-  </si>
-  <si>
-    <t>Hoàn thành</t>
-  </si>
-  <si>
-    <t>Tuần 2</t>
-  </si>
-  <si>
-    <t>Tuần 3</t>
   </si>
   <si>
     <t>GV hướng dẫn: TS Lê Văn Vinh</t>
@@ -92,6 +80,59 @@
       </rPr>
       <t>"</t>
     </r>
+  </si>
+  <si>
+    <t>Đặc tả Use Case</t>
+  </si>
+  <si>
+    <t>Phân chia công việc Frontend, Backend</t>
+  </si>
+  <si>
+    <t>Tuần 6</t>
+  </si>
+  <si>
+    <t>Tuần 1
+(9/9-15/9)</t>
+  </si>
+  <si>
+    <t>Tuần 2
+(16/9-22/9)</t>
+  </si>
+  <si>
+    <t>Tuần 3
+(23/9-29/9)</t>
+  </si>
+  <si>
+    <t>Sửa lược đồ Use Case</t>
+  </si>
+  <si>
+    <t>Vẽ lược đồ Sequence</t>
+  </si>
+  <si>
+    <t>Vẽ lược đồ Class</t>
+  </si>
+  <si>
+    <t>Đang thực hiện</t>
+  </si>
+  <si>
+    <t>Thiết kế cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>Đã thực hiện</t>
+  </si>
+  <si>
+    <t>Tuần 4
+(30/9-06/10)</t>
+  </si>
+  <si>
+    <t>Tuần 5
+(7/10-13/10)</t>
+  </si>
+  <si>
+    <t>Thiết kế Prototype giao diện cho Website</t>
+  </si>
+  <si>
+    <t>Cài đặt các IDE, Framework, Phần mềm cần thiết</t>
   </si>
 </sst>
 </file>
@@ -133,7 +174,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,7 +183,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,30 +221,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,26 +533,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.85546875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -505,153 +560,299 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
+      <c r="C7" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
+      <c r="A8" s="11"/>
+      <c r="B8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A39:A45"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A25:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
